--- a/Daten_Lisa.xlsx
+++ b/Daten_Lisa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e7ca8a70598c88/Data Science Studium/Erhebungstechniken/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisah\Documents\GitHub\Erhebungstechniken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="904" documentId="13_ncr:1_{C53BF61C-EF4A-4DFE-B2B2-C09B458F02C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA83B9ED-DB5B-4545-A2A1-06806937D6B6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9B5886-288E-4523-81EE-03A697133866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FF64E74-21F3-484F-ACF9-339A8D7336F0}"/>
   </bookViews>
@@ -486,10 +486,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50AEDED-DCA6-4F35-B306-81F8782401A9}">
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,93 +1145,232 @@
         <v>98</v>
       </c>
     </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>4.2</v>
+      </c>
+      <c r="C5">
+        <v>4.2</v>
+      </c>
+      <c r="D5">
+        <v>-19</v>
+      </c>
+      <c r="E5">
+        <v>-16</v>
+      </c>
+      <c r="F5">
+        <v>-15</v>
+      </c>
+      <c r="G5">
+        <v>-14</v>
+      </c>
+      <c r="H5">
+        <v>-14</v>
+      </c>
+      <c r="I5">
+        <v>-9</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>-16</v>
+      </c>
+      <c r="L5">
+        <v>-14</v>
+      </c>
+      <c r="M5">
+        <v>-5</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>11</v>
+      </c>
+      <c r="T5">
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <v>9</v>
+      </c>
+      <c r="V5">
+        <v>14</v>
+      </c>
+      <c r="W5">
+        <v>23</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.5</v>
+      </c>
+      <c r="AC5">
+        <v>0.5</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>6</v>
+      </c>
+      <c r="AF5">
+        <v>120</v>
+      </c>
+      <c r="AG5">
+        <v>21</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI5">
+        <v>70</v>
+      </c>
+      <c r="AJ5">
+        <v>175</v>
+      </c>
+      <c r="AK5">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B6">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
         <v>-19</v>
       </c>
-      <c r="E6">
-        <v>-16</v>
-      </c>
-      <c r="F6">
-        <v>-15</v>
-      </c>
       <c r="G6">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="I6">
-        <v>-9</v>
+        <v>19</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="L6">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="M6">
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="N6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="S6">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="T6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U6">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="V6">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="W6">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <v>1</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>-2</v>
-      </c>
-      <c r="AB6">
-        <v>1.5</v>
-      </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1244,7 +1379,7 @@
         <v>6</v>
       </c>
       <c r="AF6">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AG6">
         <v>21</v>
@@ -1253,40 +1388,32 @@
         <v>91</v>
       </c>
       <c r="AI6">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ6">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AK6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AL6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AM6" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="2"/>
+        <v>107</v>
+      </c>
       <c r="AW6" t="s">
         <v>124</v>
       </c>
@@ -1299,43 +1426,43 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>-5</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>-5</v>
+      </c>
+      <c r="L7">
         <v>2</v>
       </c>
-      <c r="K7">
-        <v>-19</v>
-      </c>
-      <c r="L7">
-        <v>19</v>
-      </c>
       <c r="M7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="N7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1344,25 +1471,25 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U7">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="V7">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="W7">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1383,40 +1510,43 @@
         <v>6</v>
       </c>
       <c r="AF7">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AG7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="AI7">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AJ7">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AK7">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AM7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AW7" t="s">
         <v>124</v>
@@ -1427,73 +1557,70 @@
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="F8">
+        <v>-17</v>
+      </c>
+      <c r="G8">
         <v>-15</v>
       </c>
-      <c r="G8">
-        <v>-5</v>
-      </c>
       <c r="H8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>15</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>-5</v>
+        <v>-17</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="M8">
         <v>8</v>
       </c>
       <c r="N8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
         <v>2</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <v>16</v>
+      </c>
+      <c r="T8">
         <v>2</v>
       </c>
-      <c r="R8">
-        <v>3</v>
-      </c>
-      <c r="S8">
-        <v>4</v>
-      </c>
-      <c r="T8">
-        <v>5</v>
-      </c>
       <c r="U8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="W8">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1508,31 +1635,31 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AG8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AI8">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AJ8">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="AK8">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AM8" t="s">
         <v>92</v>
@@ -1541,16 +1668,13 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="s">
         <v>124</v>
@@ -1564,67 +1688,70 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E9">
-        <v>-4</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>-17</v>
+        <v>-12</v>
       </c>
       <c r="G9">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I9">
         <v>18</v>
       </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
       <c r="K9">
-        <v>-17</v>
+        <v>-8</v>
       </c>
       <c r="L9">
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S9">
+        <v>19</v>
+      </c>
+      <c r="T9">
+        <v>11</v>
+      </c>
+      <c r="U9">
         <v>16</v>
       </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-      <c r="U9">
-        <v>15</v>
-      </c>
       <c r="V9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="W9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1639,31 +1766,31 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AE9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AG9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="AI9">
-        <v>77</v>
+        <v>66.5</v>
       </c>
       <c r="AJ9">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="AK9">
-        <v>44</v>
+        <v>69.5</v>
       </c>
       <c r="AL9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AM9" t="s">
         <v>92</v>
@@ -1672,13 +1799,16 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>113</v>
       </c>
       <c r="AW9" t="s">
         <v>124</v>
@@ -1692,127 +1822,127 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="E10">
+        <v>-4</v>
+      </c>
+      <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10">
+        <v>-4</v>
+      </c>
+      <c r="H10">
         <v>13</v>
       </c>
-      <c r="F10">
-        <v>-12</v>
-      </c>
-      <c r="G10">
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="J10">
         <v>4</v>
       </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10">
+      <c r="K10">
+        <v>-17</v>
+      </c>
+      <c r="L10">
+        <v>-4</v>
+      </c>
+      <c r="M10">
+        <v>17</v>
+      </c>
+      <c r="N10">
         <v>18</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>-8</v>
-      </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
-      <c r="M10">
-        <v>15</v>
-      </c>
-      <c r="N10">
-        <v>19</v>
       </c>
       <c r="O10">
         <v>4</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>15</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>18</v>
+      </c>
+      <c r="V10">
+        <v>27</v>
+      </c>
+      <c r="W10">
+        <v>30</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0.5</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
         <v>7</v>
       </c>
-      <c r="R10">
-        <v>11</v>
-      </c>
-      <c r="S10">
-        <v>19</v>
-      </c>
-      <c r="T10">
-        <v>11</v>
-      </c>
-      <c r="U10">
-        <v>16</v>
-      </c>
-      <c r="V10">
-        <v>24</v>
-      </c>
-      <c r="W10">
-        <v>33</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
+      <c r="AF10">
+        <v>80</v>
+      </c>
+      <c r="AG10">
+        <v>21</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI10">
+        <v>73</v>
+      </c>
+      <c r="AJ10">
+        <v>181</v>
+      </c>
+      <c r="AK10">
+        <v>42</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
         <v>1</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
         <v>3</v>
       </c>
-      <c r="AE10">
-        <v>6</v>
-      </c>
-      <c r="AF10">
-        <v>60</v>
-      </c>
-      <c r="AG10">
-        <v>20</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI10">
-        <v>66.5</v>
-      </c>
-      <c r="AJ10">
-        <v>164</v>
-      </c>
-      <c r="AK10">
-        <v>69.5</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>10</v>
-      </c>
       <c r="AS10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AW10" t="s">
         <v>124</v>
@@ -1826,70 +1956,70 @@
         <v>100</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="E11">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="F11">
         <v>-17</v>
       </c>
       <c r="G11">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>-16</v>
+      </c>
+      <c r="L11">
+        <v>-14</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>17</v>
+      </c>
+      <c r="T11">
         <v>4</v>
       </c>
-      <c r="K11">
-        <v>-17</v>
-      </c>
-      <c r="L11">
-        <v>-4</v>
-      </c>
-      <c r="M11">
-        <v>17</v>
-      </c>
-      <c r="N11">
-        <v>18</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
+      <c r="U11">
         <v>5</v>
       </c>
-      <c r="R11">
-        <v>8</v>
-      </c>
-      <c r="S11">
-        <v>15</v>
-      </c>
-      <c r="T11">
-        <v>5</v>
-      </c>
-      <c r="U11">
-        <v>18</v>
-      </c>
       <c r="V11">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="W11">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1901,16 +2031,16 @@
         <v>0.5</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
         <v>1</v>
       </c>
       <c r="AE11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AG11">
         <v>21</v>
@@ -1919,19 +2049,19 @@
         <v>91</v>
       </c>
       <c r="AI11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AJ11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AK11">
-        <v>42</v>
+        <v>44.5</v>
       </c>
       <c r="AL11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM11" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -1943,10 +2073,10 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AW11" t="s">
         <v>124</v>
@@ -1960,91 +2090,91 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>-13</v>
       </c>
       <c r="F12">
+        <v>-15</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
         <v>-17</v>
       </c>
-      <c r="G12">
-        <v>-14</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>8</v>
-      </c>
-      <c r="J12">
+      <c r="L12">
+        <v>-8</v>
+      </c>
+      <c r="M12">
         <v>7</v>
       </c>
-      <c r="K12">
-        <v>-16</v>
-      </c>
-      <c r="L12">
-        <v>-14</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R12">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="S12">
         <v>17</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="V12">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="W12">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB12">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <v>1</v>
       </c>
       <c r="AE12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF12">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AG12">
         <v>21</v>
@@ -2053,34 +2183,34 @@
         <v>91</v>
       </c>
       <c r="AI12">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AJ12">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AK12">
-        <v>44.5</v>
+        <v>36.5</v>
       </c>
       <c r="AL12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AM12" t="s">
         <v>92</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AQ12">
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AS12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AW12" t="s">
         <v>124</v>
@@ -2091,112 +2221,112 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>-17</v>
       </c>
       <c r="E13">
-        <v>-13</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
       <c r="K13">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="L13">
-        <v>-8</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>16</v>
+      </c>
+      <c r="V13">
+        <v>27</v>
+      </c>
+      <c r="W13">
+        <v>35</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0.5</v>
+      </c>
+      <c r="AE13">
         <v>4</v>
       </c>
-      <c r="Q13">
-        <v>11</v>
-      </c>
-      <c r="R13">
-        <v>17</v>
-      </c>
-      <c r="S13">
-        <v>17</v>
-      </c>
-      <c r="T13">
-        <v>6</v>
-      </c>
-      <c r="U13">
-        <v>11</v>
-      </c>
-      <c r="V13">
-        <v>17</v>
-      </c>
-      <c r="W13">
-        <v>24</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>2</v>
-      </c>
-      <c r="AB13">
-        <v>2</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>1</v>
-      </c>
-      <c r="AE13">
-        <v>7</v>
-      </c>
       <c r="AF13">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AG13">
         <v>21</v>
       </c>
       <c r="AH13" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="AI13">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="AJ13">
         <v>164</v>
       </c>
       <c r="AK13">
-        <v>36.5</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AM13" t="s">
         <v>92</v>
@@ -2205,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AQ13">
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AS13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AW13" t="s">
         <v>124</v>
@@ -2225,25 +2355,25 @@
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>-9</v>
+      </c>
+      <c r="E14">
         <v>10</v>
       </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>-17</v>
-      </c>
-      <c r="E14">
-        <v>16</v>
-      </c>
       <c r="F14">
-        <v>-19</v>
+        <v>-10</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>19</v>
@@ -2255,10 +2385,10 @@
         <v>4</v>
       </c>
       <c r="K14">
-        <v>-16</v>
+        <v>-9</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M14">
         <v>19</v>
@@ -2267,28 +2397,28 @@
         <v>19</v>
       </c>
       <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>19</v>
+      </c>
+      <c r="S14">
+        <v>23</v>
+      </c>
+      <c r="T14">
         <v>2</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
       <c r="U14">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="V14">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="W14">
         <v>35</v>
@@ -2297,22 +2427,22 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AE14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AG14">
         <v>21</v>
@@ -2321,34 +2451,31 @@
         <v>112</v>
       </c>
       <c r="AI14">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AJ14">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK14">
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="AL14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AM14" t="s">
         <v>92</v>
       </c>
       <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
         <v>1</v>
       </c>
-      <c r="AP14">
-        <v>21</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
       <c r="AR14">
-        <v>20</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="AW14" t="s">
         <v>124</v>
@@ -2362,109 +2489,109 @@
         <v>100</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="F15">
+        <v>-19</v>
+      </c>
+      <c r="G15">
+        <v>-11</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
         <v>-10</v>
       </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>19</v>
-      </c>
-      <c r="I15">
-        <v>19</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>-9</v>
-      </c>
       <c r="L15">
-        <v>14</v>
+        <v>-2</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>19</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R15">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S15">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="V15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="W15">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF15">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AG15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="s">
         <v>112</v>
       </c>
       <c r="AI15">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="AJ15">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AK15">
-        <v>39.5</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="AM15" t="s">
         <v>92</v>
@@ -2473,19 +2600,13 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15">
-        <v>23</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
@@ -2493,70 +2614,67 @@
         <v>100</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D16">
+        <v>-15</v>
+      </c>
+      <c r="E16">
+        <v>-9</v>
+      </c>
+      <c r="F16">
+        <v>-17</v>
+      </c>
+      <c r="G16">
         <v>-14</v>
       </c>
-      <c r="E16">
-        <v>-3</v>
-      </c>
-      <c r="F16">
-        <v>-19</v>
-      </c>
-      <c r="G16">
-        <v>-11</v>
-      </c>
       <c r="H16">
-        <v>15</v>
+        <v>-8</v>
       </c>
       <c r="I16">
-        <v>18</v>
-      </c>
-      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>-16</v>
+      </c>
+      <c r="L16">
+        <v>-12</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>7</v>
+      </c>
+      <c r="S16">
+        <v>11</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
         <v>5</v>
       </c>
-      <c r="K16">
-        <v>-10</v>
-      </c>
-      <c r="L16">
-        <v>-2</v>
-      </c>
-      <c r="M16">
-        <v>16</v>
-      </c>
-      <c r="N16">
-        <v>19</v>
-      </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>10</v>
-      </c>
-      <c r="R16">
-        <v>21</v>
-      </c>
-      <c r="S16">
-        <v>27</v>
-      </c>
-      <c r="T16">
-        <v>5</v>
-      </c>
-      <c r="U16">
+      <c r="V16">
         <v>13</v>
       </c>
-      <c r="V16">
-        <v>26</v>
-      </c>
       <c r="W16">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -2565,37 +2683,37 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF16">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AG16">
         <v>20</v>
       </c>
       <c r="AH16" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="AI16">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ16">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="AK16">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="AM16" t="s">
         <v>92</v>
@@ -2604,12 +2722,9 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
         <v>0</v>
       </c>
     </row>
@@ -2618,114 +2733,114 @@
         <v>100</v>
       </c>
       <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>-19</v>
+      </c>
+      <c r="E17">
+        <v>-15</v>
+      </c>
+      <c r="F17">
+        <v>-19</v>
+      </c>
+      <c r="G17">
+        <v>-19</v>
+      </c>
+      <c r="H17">
+        <v>-17</v>
+      </c>
+      <c r="I17">
+        <v>-14</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>-19</v>
+      </c>
+      <c r="L17">
+        <v>-19</v>
+      </c>
+      <c r="M17">
+        <v>-15</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
         <v>10</v>
       </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>-15</v>
-      </c>
-      <c r="E17">
-        <v>-9</v>
-      </c>
-      <c r="F17">
-        <v>-17</v>
-      </c>
-      <c r="G17">
-        <v>-14</v>
-      </c>
-      <c r="H17">
-        <v>-8</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>-16</v>
-      </c>
-      <c r="L17">
-        <v>-12</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>8</v>
-      </c>
-      <c r="O17">
-        <v>8</v>
-      </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>9</v>
+      </c>
+      <c r="W17">
+        <v>23</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0.5</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>3</v>
+      </c>
+      <c r="AE17">
         <v>2</v>
       </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-      <c r="R17">
-        <v>7</v>
-      </c>
-      <c r="S17">
-        <v>11</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>5</v>
-      </c>
-      <c r="V17">
-        <v>13</v>
-      </c>
-      <c r="W17">
-        <v>25</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>2.5</v>
-      </c>
-      <c r="AC17">
-        <v>0.5</v>
-      </c>
-      <c r="AD17">
-        <v>1</v>
-      </c>
-      <c r="AE17">
-        <v>7</v>
-      </c>
       <c r="AF17">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AG17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="s">
         <v>91</v>
       </c>
       <c r="AI17">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ17">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK17">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AM17" t="s">
         <v>92</v>
       </c>
       <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
         <v>0</v>
       </c>
       <c r="AQ17">
@@ -2737,109 +2852,109 @@
         <v>100</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>-19</v>
+        <v>-11</v>
       </c>
       <c r="E18">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>-19</v>
       </c>
       <c r="G18">
-        <v>-19</v>
+        <v>-11</v>
       </c>
       <c r="H18">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
         <v>-14</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>-19</v>
-      </c>
       <c r="L18">
-        <v>-19</v>
+        <v>-3</v>
       </c>
       <c r="M18">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="N18">
+        <v>19</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>18</v>
+      </c>
+      <c r="S18">
+        <v>24</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>16</v>
+      </c>
+      <c r="V18">
+        <v>27</v>
+      </c>
+      <c r="W18">
+        <v>35</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
         <v>1</v>
       </c>
-      <c r="O18">
-        <v>10</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>4</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>9</v>
-      </c>
-      <c r="W18">
-        <v>23</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0.5</v>
-      </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AF18">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AG18">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AH18" t="s">
         <v>91</v>
       </c>
       <c r="AI18">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AJ18">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="AK18">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AL18" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AM18" t="s">
         <v>92</v>
@@ -2850,144 +2965,25 @@
       <c r="AQ18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>-11</v>
-      </c>
-      <c r="E19">
-        <v>9</v>
-      </c>
-      <c r="F19">
-        <v>-19</v>
-      </c>
-      <c r="G19">
-        <v>-11</v>
-      </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="I19">
-        <v>17</v>
-      </c>
-      <c r="J19">
-        <v>8</v>
-      </c>
-      <c r="K19">
-        <v>-14</v>
-      </c>
-      <c r="L19">
-        <v>-3</v>
-      </c>
-      <c r="M19">
-        <v>10</v>
-      </c>
-      <c r="N19">
-        <v>19</v>
-      </c>
-      <c r="O19">
-        <v>6</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-      <c r="R19">
-        <v>18</v>
-      </c>
-      <c r="S19">
-        <v>24</v>
-      </c>
-      <c r="T19">
-        <v>4</v>
-      </c>
-      <c r="U19">
-        <v>16</v>
-      </c>
-      <c r="V19">
-        <v>27</v>
-      </c>
-      <c r="W19">
-        <v>35</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>6</v>
-      </c>
-      <c r="AF19">
-        <v>60</v>
-      </c>
-      <c r="AG19">
-        <v>24</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI19">
-        <v>103</v>
-      </c>
-      <c r="AJ19">
-        <v>191</v>
-      </c>
-      <c r="AK19">
-        <v>50</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="s">
+      <c r="AS18" t="s">
         <v>127</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AT18" t="s">
         <v>128</v>
       </c>
-      <c r="AU19" s="1">
+      <c r="AU18" s="1">
         <v>45275</v>
       </c>
-      <c r="AV19" s="2">
+      <c r="AV18" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AW18" t="s">
         <v>124</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="AX18" t="s">
         <v>129</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="AY18" t="s">
         <v>99</v>
       </c>
     </row>

--- a/Daten_Lisa.xlsx
+++ b/Daten_Lisa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisah\Documents\GitHub\Erhebungstechniken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9B5886-288E-4523-81EE-03A697133866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4D0322-6B98-4110-8631-54818239221D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FF64E74-21F3-484F-ACF9-339A8D7336F0}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{8FF64E74-21F3-484F-ACF9-339A8D7336F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -489,9 +489,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -529,7 +529,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -635,7 +635,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -777,7 +777,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -787,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50AEDED-DCA6-4F35-B306-81F8782401A9}">
   <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
